--- a/TestData/JTPS-DEVQA/DeniedPartyWatchLists.xlsx
+++ b/TestData/JTPS-DEVQA/DeniedPartyWatchLists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="115">
   <si>
     <t>EOF</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Run_TestCase</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Denied Party</t>
   </si>
 </sst>
 </file>
@@ -979,7 +985,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X73"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,8 +1068,12 @@
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -1108,8 +1118,12 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
         <v>8</v>

--- a/TestData/JTPS-DEVQA/DeniedPartyWatchLists.xlsx
+++ b/TestData/JTPS-DEVQA/DeniedPartyWatchLists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="115">
   <si>
     <t>EOF</t>
   </si>
@@ -22,9 +22,6 @@
     <t>elm_close</t>
   </si>
   <si>
-    <t>wnd_DayRanges</t>
-  </si>
-  <si>
     <t>pJTPS</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>elm_Table</t>
   </si>
   <si>
-    <t>allrows,value^</t>
-  </si>
-  <si>
     <t>DeleteRow</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>dbclick</t>
   </si>
   <si>
-    <t>Day Ranges,setproperty,innertext</t>
-  </si>
-  <si>
     <t>elm_Changessavedtothedatabase</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>5.3.0.3</t>
   </si>
   <si>
-    <t>allrows,value^,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>5.2.6</t>
   </si>
   <si>
@@ -232,9 +220,6 @@
     <t>5.4</t>
   </si>
   <si>
-    <t>,setproperty,innertext</t>
-  </si>
-  <si>
     <t>scrollandclick</t>
   </si>
   <si>
@@ -358,7 +343,22 @@
     <t>TS001</t>
   </si>
   <si>
-    <t>Denied Party</t>
+    <t>Denied Party Watch Lists</t>
+  </si>
+  <si>
+    <t>Denied Party Watch Lists,setproperty,innertext</t>
+  </si>
+  <si>
+    <t>wnd_DeniedPartyWatchLists</t>
+  </si>
+  <si>
+    <t>allrows,value^XYZ</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>allrows,value^XYZ,Description^Automation,short description^Automation</t>
   </si>
 </sst>
 </file>
@@ -984,120 +984,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D57" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1111,48 +1117,48 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="2"/>
@@ -1170,19 +1176,19 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1190,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="10"/>
@@ -1212,33 +1218,33 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="2"/>
@@ -1256,19 +1262,19 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1276,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="10"/>
@@ -1298,33 +1304,33 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="2"/>
@@ -1342,34 +1348,34 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="18"/>
       <c r="M8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1386,36 +1392,36 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="34" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1432,33 +1438,33 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="2"/>
@@ -1476,31 +1482,31 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>1</v>
@@ -1520,19 +1526,19 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -1540,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="16"/>
@@ -1562,36 +1568,36 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1608,36 +1614,36 @@
       <c r="C14" s="7"/>
       <c r="D14" s="12"/>
       <c r="E14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
@@ -1654,36 +1660,36 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -1700,36 +1706,36 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -1746,36 +1752,36 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
@@ -1785,7 +1791,7 @@
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
@@ -1794,36 +1800,36 @@
       <c r="C18" s="7"/>
       <c r="D18" s="12"/>
       <c r="E18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -1840,36 +1846,36 @@
       <c r="C19" s="7"/>
       <c r="D19" s="12"/>
       <c r="E19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -1886,36 +1892,36 @@
       <c r="C20" s="7"/>
       <c r="D20" s="12"/>
       <c r="E20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -1932,36 +1938,36 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -1978,36 +1984,36 @@
       <c r="C22" s="7"/>
       <c r="D22" s="12"/>
       <c r="E22" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -2024,19 +2030,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="12"/>
       <c r="E23" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -2044,10 +2050,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23" s="21"/>
       <c r="P23" s="16"/>
@@ -2066,36 +2072,36 @@
       <c r="C24" s="7"/>
       <c r="D24" s="12"/>
       <c r="E24" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -2112,36 +2118,36 @@
       <c r="C25" s="7"/>
       <c r="D25" s="12"/>
       <c r="E25" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
@@ -2158,36 +2164,36 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
@@ -2204,26 +2210,26 @@
       <c r="C27" s="7"/>
       <c r="D27" s="12"/>
       <c r="E27" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="11"/>
       <c r="M27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" s="23"/>
       <c r="P27" s="24"/>
@@ -2235,7 +2241,7 @@
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
       <c r="X27" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
@@ -2244,36 +2250,36 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
@@ -2290,36 +2296,36 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
@@ -2336,34 +2342,36 @@
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="19"/>
+      <c r="L30" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="M30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
@@ -2380,36 +2388,36 @@
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
@@ -2426,36 +2434,36 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
@@ -2472,33 +2480,33 @@
       <c r="C33" s="7"/>
       <c r="D33" s="12"/>
       <c r="E33" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="9"/>
@@ -2516,36 +2524,36 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
@@ -2562,33 +2570,33 @@
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P35" s="10" t="s">
         <v>1</v>
@@ -2608,36 +2616,36 @@
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
-      <c r="L36" s="18" t="s">
-        <v>25</v>
+      <c r="L36" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -2654,36 +2662,36 @@
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -2694,42 +2702,42 @@
       <c r="W37" s="1"/>
       <c r="X37" s="8"/>
     </row>
-    <row r="38" spans="1:24" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="14" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
@@ -2746,36 +2754,36 @@
       <c r="C39" s="7"/>
       <c r="D39" s="12"/>
       <c r="E39" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
@@ -2792,36 +2800,36 @@
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
@@ -2838,34 +2846,36 @@
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="19"/>
+      <c r="L41" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="M41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
@@ -2882,36 +2892,36 @@
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
@@ -2928,36 +2938,36 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
@@ -2974,36 +2984,36 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G44" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
@@ -3020,33 +3030,33 @@
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>1</v>
@@ -3066,36 +3076,36 @@
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
-      <c r="L46" s="18" t="s">
-        <v>25</v>
+      <c r="L46" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P46" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -3112,36 +3122,36 @@
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -3158,36 +3168,36 @@
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
@@ -3204,34 +3214,36 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="19"/>
+      <c r="L49" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="M49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
@@ -3248,36 +3260,36 @@
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
@@ -3294,36 +3306,36 @@
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G51" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
@@ -3340,36 +3352,36 @@
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G52" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
@@ -3386,33 +3398,33 @@
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P53" s="10" t="s">
         <v>1</v>
@@ -3432,36 +3444,36 @@
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="18" t="s">
-        <v>25</v>
+      <c r="L54" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P54" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -3478,36 +3490,36 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -3524,36 +3536,36 @@
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
@@ -3570,33 +3582,33 @@
       <c r="C57" s="7"/>
       <c r="D57" s="12"/>
       <c r="E57" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>1</v>
@@ -3616,33 +3628,33 @@
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G58" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P58" s="9"/>
       <c r="Q58" s="2"/>
@@ -3660,36 +3672,36 @@
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="18" t="s">
-        <v>25</v>
+      <c r="L59" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -3706,36 +3718,36 @@
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -3752,36 +3764,36 @@
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
@@ -3798,36 +3810,36 @@
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P62" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
@@ -3844,33 +3856,33 @@
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P63" s="10"/>
       <c r="Q63" s="9"/>
@@ -3888,33 +3900,33 @@
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G64" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>1</v>
@@ -3934,36 +3946,36 @@
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="18" t="s">
-        <v>25</v>
+      <c r="L65" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P65" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -3980,36 +3992,36 @@
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P66" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
@@ -4020,42 +4032,42 @@
       <c r="W66" s="1"/>
       <c r="X66" s="8"/>
     </row>
-    <row r="67" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G67" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
@@ -4066,42 +4078,42 @@
       <c r="W67" s="1"/>
       <c r="X67" s="8"/>
     </row>
-    <row r="68" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G68" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="14" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P68" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
@@ -4118,36 +4130,36 @@
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P69" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
@@ -4164,36 +4176,36 @@
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J70" s="13"/>
       <c r="K70" s="2"/>
       <c r="L70" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
@@ -4210,36 +4222,36 @@
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P71" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
@@ -4256,33 +4268,33 @@
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G72" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>1</v>
